--- a/src/test/resources/testdata/HrmTestData.xlsx
+++ b/src/test/resources/testdata/HrmTestData.xlsx
@@ -850,7 +850,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>